--- a/pbelasting/input/160706_giab.xlsx
+++ b/pbelasting/input/160706_giab.xlsx
@@ -37507,8 +37507,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Algemeen - Word" ma:contentTypeID="0x0101004F34529632943E4DBB820B36F0ABAA0606010086381A6D56669A4DB59F7772448721B1" ma:contentTypeVersion="5" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="8fe95572a7a7878b61abe4cdcaa95a61">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d59e9867-4acc-40d5-91da-91f4047d1695" xmlns:ns3="fbe582d4-4cd9-4e01-adc0-428c7d30a990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b624776c1a3c75443e1a1b758f5efa1" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Algemeen - Word" ma:contentTypeID="0x0101004F34529632943E4DBB820B36F0ABAA0606010086381A6D56669A4DB59F7772448721B1" ma:contentTypeVersion="5" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="a3dc09ef3a7bf1a3733fa49c43c4413e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d59e9867-4acc-40d5-91da-91f4047d1695" xmlns:ns3="fbe582d4-4cd9-4e01-adc0-428c7d30a990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29e85f7a59c719c7c751c3f23a994278" ns2:_="" ns3:_="">
     <xsd:import namespace="d59e9867-4acc-40d5-91da-91f4047d1695"/>
     <xsd:import namespace="fbe582d4-4cd9-4e01-adc0-428c7d30a990"/>
     <xsd:element name="properties">
@@ -37874,10 +37874,10 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
-    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-177039</_dlc_DocId>
+    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-256715</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
-      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-177039</Url>
-      <Description>PNHZET2ZRHHM-1647798991-177039</Description>
+      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-256715</Url>
+      <Description>PNHZET2ZRHHM-1647798991-256715</Description>
     </_dlc_DocIdUrl>
     <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
     <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
@@ -37894,7 +37894,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF1B4C7D-7115-41CF-87B9-24EFFD93415C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BA4A498-484E-4090-8570-598045572E95}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
